--- a/biology/Médecine/Région_de_bien-être_de_Carélie_du_Nord/Région_de_bien-être_de_Carélie_du_Nord.xlsx
+++ b/biology/Médecine/Région_de_bien-être_de_Carélie_du_Nord/Région_de_bien-être_de_Carélie_du_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La région de bien-être de Carélie du Nord (en finnois : Pohjois-Karjalan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours en Carélie du Nord[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région de bien-être de Carélie du Nord (en finnois : Pohjois-Karjalan hyvinvointialue) est un organisme public indépendant des municipalités et de l'État chargé des services sociaux, de santé et de secours en Carélie du Nord.
 C'est l'une des 23 régions de bien-être de Finlande.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Municipalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Joensuu
@@ -537,7 +551,7 @@
 Savoniedu Nord
 Savoniedu Sud
 municipalités de Carélie du Nord.
-La région compte 13 municipalités, dont 5 villes[4].
+La région compte 13 municipalités, dont 5 villes.
  Heinävesi
  Ilomantsi
  Joensuu
@@ -561,7 +575,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,14 +593,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Carélie du Nord à partir du 1er janvier 2023[5].
-Soins de santé
-Les municipalités font partie du district hospitalier de Carélie du Nord. 
-La région est servie par l'hôpital central de Carélie du Nord.
-Opérations de secours
-En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Carélie du Nord dépendent du service de secours de Carélie du Nord.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La responsabilité légale de l'organisation des services sociaux et de santé et de secours passera des municipalités à la région de bien-être de Carélie du Nord à partir du 1er janvier 2023.
 </t>
         </is>
       </c>
@@ -597,7 +608,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,10 +623,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Soins de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les municipalités font partie du district hospitalier de Carélie du Nord. 
+La région est servie par l'hôpital central de Carélie du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Opérations de secours</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En termes d'opérations de secours d'urgence, les municipalités de la région de bien-être de Carélie du Nord dépendent du service de secours de Carélie du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Région_de_bien-être_de_Carélie_du_Nord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gion_de_bien-%C3%AAtre_de_Car%C3%A9lie_du_Nord</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Politique et administration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les élections régionales finlandaises de 2022 ont eu lieu le 23 janvier 2022 afin de désigner pour la première fois les 59 conseillers régionaux élus pour 3 ans pour administrer la région de services du bien-être de Carélie du Nord.
 La répartition des voix et des sièges sont les suivantes :
